--- a/data/trans_orig/CUI_GLOB-Clase-trans_orig.xlsx
+++ b/data/trans_orig/CUI_GLOB-Clase-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>26234</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>19953</v>
+        <v>20578</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>31651</v>
+        <v>32002</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.6794097482506216</v>
+        <v>0.6794097482506213</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5167383362268607</v>
+        <v>0.5329287650500875</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8197013023934857</v>
+        <v>0.8287834876773893</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>25</v>
@@ -762,19 +762,19 @@
         <v>19357</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>13905</v>
+        <v>14380</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>24696</v>
+        <v>24464</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.5428942429239358</v>
+        <v>0.5428942429239356</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3899795327352437</v>
+        <v>0.4033000191068834</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.692622808542282</v>
+        <v>0.6861218928279874</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>52</v>
@@ -783,19 +783,19 @@
         <v>45592</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>37091</v>
+        <v>38042</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>52696</v>
+        <v>53175</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.6138699399994235</v>
+        <v>0.6138699399994237</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4994134394781402</v>
+        <v>0.5122205049823833</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7095299742142794</v>
+        <v>0.7159810492054645</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>4943</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1909</v>
+        <v>2129</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>9240</v>
+        <v>9856</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.1280156617074177</v>
+        <v>0.1280156617074176</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.04944837000024194</v>
+        <v>0.05513614760318633</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2393099802406699</v>
+        <v>0.2552584397013023</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>12</v>
@@ -833,19 +833,19 @@
         <v>7616</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4273</v>
+        <v>4108</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>12521</v>
+        <v>12241</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2135910088228703</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1198524648510038</v>
+        <v>0.1152079944795729</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3511704133090526</v>
+        <v>0.3432973750989576</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>19</v>
@@ -854,19 +854,19 @@
         <v>12559</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>7536</v>
+        <v>8203</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>18248</v>
+        <v>19972</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.1690995798129465</v>
+        <v>0.1690995798129466</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.101472884738323</v>
+        <v>0.1104487703298597</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.245701021363365</v>
+        <v>0.2689166910711015</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>7436</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3489</v>
+        <v>3380</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>12894</v>
+        <v>13117</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1925745900419611</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.09035951893516209</v>
+        <v>0.08754023170504373</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3339175830316517</v>
+        <v>0.3397129988918408</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>12</v>
@@ -904,19 +904,19 @@
         <v>8683</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>4855</v>
+        <v>4959</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>14026</v>
+        <v>13898</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.2435147482531941</v>
+        <v>0.243514748253194</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1361682068329195</v>
+        <v>0.1390721717372177</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3933593885541356</v>
+        <v>0.3897808995504811</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>20</v>
@@ -925,19 +925,19 @@
         <v>16119</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>10856</v>
+        <v>10349</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>24318</v>
+        <v>22842</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2170304801876299</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.146171170372224</v>
+        <v>0.1393388973763496</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3274267916032037</v>
+        <v>0.3075603296167547</v>
       </c>
     </row>
     <row r="7">
@@ -1029,19 +1029,19 @@
         <v>24853</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>18900</v>
+        <v>18741</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>29999</v>
+        <v>29574</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.7174283871351489</v>
+        <v>0.7174283871351487</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5455760829511163</v>
+        <v>0.5409769616427452</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.865984136735388</v>
+        <v>0.8537110928359143</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>33</v>
@@ -1050,19 +1050,19 @@
         <v>19007</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>14228</v>
+        <v>14151</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>24235</v>
+        <v>23825</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.4784769894069394</v>
+        <v>0.4784769894069397</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3581702554778463</v>
+        <v>0.3562315873277238</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6100711519715735</v>
+        <v>0.5997452674579109</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>60</v>
@@ -1071,19 +1071,19 @@
         <v>43860</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>35445</v>
+        <v>35313</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>51751</v>
+        <v>50650</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.5897865132912548</v>
+        <v>0.5897865132912551</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4766273342344171</v>
+        <v>0.4748489145174332</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6958894438851446</v>
+        <v>0.6810908946696997</v>
       </c>
     </row>
     <row r="9">
@@ -1100,19 +1100,19 @@
         <v>6292</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>2776</v>
+        <v>2567</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>12089</v>
+        <v>12134</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.1816422166333271</v>
+        <v>0.181642216633327</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.0801212850477783</v>
+        <v>0.07410113810526724</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3489834827326553</v>
+        <v>0.3502642364175373</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>13</v>
@@ -1121,19 +1121,19 @@
         <v>9053</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>5338</v>
+        <v>4779</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>13941</v>
+        <v>13509</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.2278928396647408</v>
+        <v>0.2278928396647409</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1343710270026058</v>
+        <v>0.1203115877219776</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.3509396928459151</v>
+        <v>0.3400599489119204</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>19</v>
@@ -1142,19 +1142,19 @@
         <v>15345</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>9993</v>
+        <v>9563</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>23111</v>
+        <v>22887</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.2063481453129828</v>
+        <v>0.2063481453129829</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1343728247339471</v>
+        <v>0.1285987318757099</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.3107750954653075</v>
+        <v>0.3077631054987625</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>3496</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1045</v>
+        <v>982</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>9065</v>
+        <v>8896</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1009293962315241</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03016330573438602</v>
+        <v>0.02835069861605423</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2616652388362722</v>
+        <v>0.2567933747625002</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>17</v>
@@ -1192,19 +1192,19 @@
         <v>11664</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>7493</v>
+        <v>7472</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>16813</v>
+        <v>16263</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.2936301709283195</v>
+        <v>0.2936301709283197</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1886139441883055</v>
+        <v>0.1880963525898278</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.423241751934604</v>
+        <v>0.4093841329521735</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>20</v>
@@ -1213,19 +1213,19 @@
         <v>15161</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>9266</v>
+        <v>9572</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>22047</v>
+        <v>22409</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.2038653413957621</v>
+        <v>0.2038653413957623</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1245997811466558</v>
+        <v>0.1287094587175528</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2964667760606568</v>
+        <v>0.3013322225306768</v>
       </c>
     </row>
     <row r="11">
@@ -1317,19 +1317,19 @@
         <v>33466</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>26328</v>
+        <v>25397</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>41164</v>
+        <v>40342</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.6091544137433001</v>
+        <v>0.6091544137432999</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.4792163362826178</v>
+        <v>0.4622824909583098</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.749258698493237</v>
+        <v>0.7343045009331844</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>29</v>
@@ -1338,19 +1338,19 @@
         <v>16953</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>12769</v>
+        <v>13365</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>20276</v>
+        <v>20764</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.6555825005759899</v>
+        <v>0.6555825005759898</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.4937738019308533</v>
+        <v>0.5168262081617979</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.7840763418220135</v>
+        <v>0.8029281499349704</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>70</v>
@@ -1359,19 +1359,19 @@
         <v>50419</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>42585</v>
+        <v>40924</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>58935</v>
+        <v>58309</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.6240137960081489</v>
+        <v>0.624013796008149</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.5270526597220055</v>
+        <v>0.5065026543432151</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.7294154366630851</v>
+        <v>0.7216653468229113</v>
       </c>
     </row>
     <row r="13">
@@ -1388,19 +1388,19 @@
         <v>12763</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>7150</v>
+        <v>7121</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>18787</v>
+        <v>19873</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.232316333479551</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1301373027960148</v>
+        <v>0.1296202117624268</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3419551770460363</v>
+        <v>0.361732484060253</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>3</v>
@@ -1409,19 +1409,19 @@
         <v>1835</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>5331</v>
+        <v>5176</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.07096349952177351</v>
+        <v>0.0709634995217735</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01763681971046591</v>
+        <v>0.01765858496349245</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2061369992500523</v>
+        <v>0.2001540355748789</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>17</v>
@@ -1430,19 +1430,19 @@
         <v>14598</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>8650</v>
+        <v>9138</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>22159</v>
+        <v>23201</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1806751050150786</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1070562818426923</v>
+        <v>0.1130909933823591</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2742483156762224</v>
+        <v>0.2871434320772346</v>
       </c>
     </row>
     <row r="14">
@@ -1459,19 +1459,19 @@
         <v>8709</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3899</v>
+        <v>4216</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>16436</v>
+        <v>16268</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.158529252777149</v>
+        <v>0.1585292527771489</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.07097169669319442</v>
+        <v>0.07674544582688865</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2991612151057701</v>
+        <v>0.2961025643947515</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>12</v>
@@ -1480,19 +1480,19 @@
         <v>7072</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>4034</v>
+        <v>3920</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>11036</v>
+        <v>10761</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.2734539999022367</v>
+        <v>0.2734539999022366</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1559982278995067</v>
+        <v>0.1515873983758421</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4267699246407719</v>
+        <v>0.4161161331819626</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>20</v>
@@ -1501,19 +1501,19 @@
         <v>15781</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>9846</v>
+        <v>9836</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>24479</v>
+        <v>24610</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1953110989767726</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.121859579801687</v>
+        <v>0.1217328017087584</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3029631189489759</v>
+        <v>0.3045840392399267</v>
       </c>
     </row>
     <row r="15">
@@ -1605,19 +1605,19 @@
         <v>72435</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>59506</v>
+        <v>60186</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>83698</v>
+        <v>83646</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.5589916159808282</v>
+        <v>0.5589916159808284</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4592174121130803</v>
+        <v>0.464464285719578</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6459098235838149</v>
+        <v>0.6455054668091691</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>66</v>
@@ -1626,19 +1626,19 @@
         <v>36760</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>29860</v>
+        <v>29546</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>44054</v>
+        <v>43920</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4692552200754999</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3811681343221873</v>
+        <v>0.3771699904006802</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5623701918992519</v>
+        <v>0.5606555875855195</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>161</v>
@@ -1647,19 +1647,19 @@
         <v>109195</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>95090</v>
+        <v>96278</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>122377</v>
+        <v>122845</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.525181904713163</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4573435447090651</v>
+        <v>0.4630533585221642</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5885778427298918</v>
+        <v>0.5908296505151417</v>
       </c>
     </row>
     <row r="17">
@@ -1676,19 +1676,19 @@
         <v>31615</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>22243</v>
+        <v>22476</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>44033</v>
+        <v>43521</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2439743385449769</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1716522082615716</v>
+        <v>0.1734492068614542</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3398047316457956</v>
+        <v>0.3358544675942287</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>13</v>
@@ -1697,19 +1697,19 @@
         <v>11682</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>6443</v>
+        <v>6749</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>18887</v>
+        <v>19175</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1491281620145438</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.08225092609243503</v>
+        <v>0.08614777404573554</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.241098906374145</v>
+        <v>0.2447767060326814</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>45</v>
@@ -1718,19 +1718,19 @@
         <v>43297</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>32217</v>
+        <v>32829</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>56881</v>
+        <v>58273</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2082394306407299</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1549519172854285</v>
+        <v>0.1578924513224529</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2735750114728229</v>
+        <v>0.2802686127162762</v>
       </c>
     </row>
     <row r="18">
@@ -1747,19 +1747,19 @@
         <v>25532</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>17266</v>
+        <v>17094</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>36801</v>
+        <v>36443</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.1970340454741947</v>
+        <v>0.1970340454741948</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1332413221260606</v>
+        <v>0.1319196318129656</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2839971113070898</v>
+        <v>0.2812340566504103</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>49</v>
@@ -1768,19 +1768,19 @@
         <v>29895</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>22971</v>
+        <v>23309</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>36814</v>
+        <v>37136</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.3816166179099564</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.29323834210625</v>
+        <v>0.2975413938223518</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.4699418164030886</v>
+        <v>0.4740587842730917</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>75</v>
@@ -1789,19 +1789,19 @@
         <v>55427</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>44927</v>
+        <v>44315</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>67613</v>
+        <v>68126</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.266578664646107</v>
+        <v>0.2665786646461071</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2160769377975584</v>
+        <v>0.2131350963912619</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.325188340590827</v>
+        <v>0.3276550267509581</v>
       </c>
     </row>
     <row r="19">
@@ -1893,19 +1893,19 @@
         <v>29623</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>23162</v>
+        <v>23531</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>34846</v>
+        <v>35332</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.6690618587964975</v>
+        <v>0.6690618587964976</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5231325719045531</v>
+        <v>0.5314709430139961</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7870278216800177</v>
+        <v>0.797996708119334</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>167</v>
@@ -1914,19 +1914,19 @@
         <v>81718</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>72278</v>
+        <v>72781</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>90404</v>
+        <v>90041</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.6376633515552205</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.56399973310567</v>
+        <v>0.5679243810038429</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7054353850638381</v>
+        <v>0.7026058730587451</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>207</v>
@@ -1935,19 +1935,19 @@
         <v>111342</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>100173</v>
+        <v>100772</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>121153</v>
+        <v>121179</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.6457257657554365</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5809515277475672</v>
+        <v>0.5844273357004458</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7026258316345255</v>
+        <v>0.702777179487016</v>
       </c>
     </row>
     <row r="21">
@@ -1964,19 +1964,19 @@
         <v>6711</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>3160</v>
+        <v>3115</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>12121</v>
+        <v>12720</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1515631474106097</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.07136746301106026</v>
+        <v>0.07034295158513035</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2737644760848366</v>
+        <v>0.2872819021272781</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>29</v>
@@ -1985,19 +1985,19 @@
         <v>21609</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>15071</v>
+        <v>14845</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>29951</v>
+        <v>29381</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1686151685722757</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1176006703467552</v>
+        <v>0.1158403411821895</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2337138315123032</v>
+        <v>0.2292652194790662</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>37</v>
@@ -2006,19 +2006,19 @@
         <v>28319</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>20510</v>
+        <v>21072</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>37683</v>
+        <v>39420</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.164236601893938</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1189495131363338</v>
+        <v>0.1222090062200754</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2185409825996929</v>
+        <v>0.2286138151633491</v>
       </c>
     </row>
     <row r="22">
@@ -2035,19 +2035,19 @@
         <v>7942</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>3851</v>
+        <v>4083</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>13230</v>
+        <v>13900</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1793749937928928</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.0869788159966067</v>
+        <v>0.0922180458086828</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.298802311226347</v>
+        <v>0.3139441716390715</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>39</v>
@@ -2056,19 +2056,19 @@
         <v>24826</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>18310</v>
+        <v>18565</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>32874</v>
+        <v>32496</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.1937214798725039</v>
+        <v>0.1937214798725038</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1428748887748438</v>
+        <v>0.1448645992161161</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.256524486938042</v>
+        <v>0.2535695323075934</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>49</v>
@@ -2077,19 +2077,19 @@
         <v>32768</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>25429</v>
+        <v>25008</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>42629</v>
+        <v>41861</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1900376323506255</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1474760381709784</v>
+        <v>0.1450345839160993</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2472250329090267</v>
+        <v>0.2427730155747844</v>
       </c>
     </row>
     <row r="23">
@@ -2181,7 +2181,7 @@
         <v>7198</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>3998</v>
+        <v>3538</v>
       </c>
       <c r="F24" s="5" t="n">
         <v>8950</v>
@@ -2190,7 +2190,7 @@
         <v>0.8042867782265011</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.446662712358402</v>
+        <v>0.3953224119599625</v>
       </c>
       <c r="I24" s="6" t="n">
         <v>1</v>
@@ -2202,19 +2202,19 @@
         <v>105946</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>97345</v>
+        <v>95881</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>115445</v>
+        <v>114083</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.6840273892560931</v>
+        <v>0.6840273892560932</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.628495205737063</v>
+        <v>0.6190437300421761</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.7453530896545818</v>
+        <v>0.7365620792194051</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>184</v>
@@ -2223,19 +2223,19 @@
         <v>113145</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>103392</v>
+        <v>102673</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>122539</v>
+        <v>122374</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.6905971417417039</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.6310690231927096</v>
+        <v>0.6266799288232195</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.7479381053094613</v>
+        <v>0.7469294287615582</v>
       </c>
     </row>
     <row r="25">
@@ -2255,16 +2255,16 @@
         <v>0</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>3927</v>
+        <v>4549</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.1050079703122391</v>
+        <v>0.1050079703122392</v>
       </c>
       <c r="H25" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4388204870088861</v>
+        <v>0.5082695631519386</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>29</v>
@@ -2273,19 +2273,19 @@
         <v>16472</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>11345</v>
+        <v>11612</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>23042</v>
+        <v>22935</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.106346502633875</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.07324856668106826</v>
+        <v>0.07497217754610577</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1487705955901015</v>
+        <v>0.1480772474669576</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>30</v>
@@ -2294,19 +2294,19 @@
         <v>17411</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>12126</v>
+        <v>12130</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>24226</v>
+        <v>23814</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1062733788127544</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.07401228620733891</v>
+        <v>0.07403457706467133</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1478660970796511</v>
+        <v>0.1453498735755921</v>
       </c>
     </row>
     <row r="26">
@@ -2326,16 +2326,16 @@
         <v>0</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>4315</v>
+        <v>3881</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.09070525146125963</v>
+        <v>0.09070525146125966</v>
       </c>
       <c r="H26" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4820678286674956</v>
+        <v>0.433634057964718</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>51</v>
@@ -2344,19 +2344,19 @@
         <v>32468</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>24715</v>
+        <v>24872</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>40301</v>
+        <v>40621</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.2096261081100319</v>
+        <v>0.209626108110032</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1595666164978137</v>
+        <v>0.1605813049288015</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2601980668367341</v>
+        <v>0.2622615759248171</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>52</v>
@@ -2365,19 +2365,19 @@
         <v>33280</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>25662</v>
+        <v>24835</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>42270</v>
+        <v>42476</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2031294794455416</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1566307380934199</v>
+        <v>0.1515835910797635</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2580009229948395</v>
+        <v>0.2592576347803063</v>
       </c>
     </row>
     <row r="27">
@@ -2469,19 +2469,19 @@
         <v>193811</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>174792</v>
+        <v>176151</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>210309</v>
+        <v>210784</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.6231811433039133</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.5620295279719786</v>
+        <v>0.56639783251989</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.6762310316147683</v>
+        <v>0.6777592224064544</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>497</v>
@@ -2490,19 +2490,19 @@
         <v>279743</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>261946</v>
+        <v>263261</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>296375</v>
+        <v>295068</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.604697017301957</v>
+        <v>0.6046970173019569</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.566227180033183</v>
+        <v>0.5690706296675396</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.6406498915562554</v>
+        <v>0.6378242981471026</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>734</v>
@@ -2511,19 +2511,19 @@
         <v>473553</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>447895</v>
+        <v>448165</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>497478</v>
+        <v>499178</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.6121278110075536</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.5789613619766008</v>
+        <v>0.5793105516204582</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.6430543915670291</v>
+        <v>0.6452518680324558</v>
       </c>
     </row>
     <row r="29">
@@ -2540,19 +2540,19 @@
         <v>63264</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>49971</v>
+        <v>49423</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>78933</v>
+        <v>79509</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.2034193144954515</v>
+        <v>0.2034193144954516</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1606767139005875</v>
+        <v>0.1589157783728987</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2538009592090562</v>
+        <v>0.2556546535018937</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>99</v>
@@ -2561,19 +2561,19 @@
         <v>68266</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>56543</v>
+        <v>55960</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>81483</v>
+        <v>81871</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1475655732234763</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1222242675608118</v>
+        <v>0.1209634153550147</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1761346735828168</v>
+        <v>0.1769732081230091</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>167</v>
@@ -2582,19 +2582,19 @@
         <v>131530</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>114058</v>
+        <v>111767</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>154236</v>
+        <v>151835</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1700193061743279</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1474349052991611</v>
+        <v>0.1444724663998774</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1993697971983152</v>
+        <v>0.1962657778075072</v>
       </c>
     </row>
     <row r="30">
@@ -2611,19 +2611,19 @@
         <v>53928</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>41234</v>
+        <v>42005</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>67954</v>
+        <v>69720</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.1733995422006352</v>
+        <v>0.1733995422006351</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1325853091042861</v>
+        <v>0.1350637211934805</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2184995658622918</v>
+        <v>0.2241800454563086</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>180</v>
@@ -2632,19 +2632,19 @@
         <v>114607</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>100050</v>
+        <v>100533</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>130864</v>
+        <v>130147</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.247737409474567</v>
+        <v>0.2477374094745669</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2162710653961499</v>
+        <v>0.2173149736047235</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2828771900705724</v>
+        <v>0.2813277727213565</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>236</v>
@@ -2653,19 +2653,19 @@
         <v>168535</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>148079</v>
+        <v>149613</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>189871</v>
+        <v>189233</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2178528828181185</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1914115943576122</v>
+        <v>0.1933945165623032</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2454323397017479</v>
+        <v>0.2446075360827042</v>
       </c>
     </row>
     <row r="31">
